--- a/Altium/Project Outputs/Fabrication/BOM/_PCB PN_.xlsx
+++ b/Altium/Project Outputs/Fabrication/BOM/_PCB PN_.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dante Sivo\Documents\GitHub\Fletcher-v2.0-\Altium\Project Outputs\Fabrication\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3A47EAAD-F5CC-4C8D-8544-D3BA980FCC61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AB277F45-338E-4FEA-9A0A-741B51D9A99B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2160" yWindow="1545" windowWidth="21600" windowHeight="11385" xr2:uid="{37399914-D9ED-48A3-A496-A708412A8768}"/>
+    <workbookView xWindow="29880" yWindow="1755" windowWidth="21600" windowHeight="11385" xr2:uid="{CB3C5980-8BAA-4A68-BE9B-55D8286E5881}"/>
   </bookViews>
   <sheets>
     <sheet name="_PCB PN_" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="195">
   <si>
     <t>Line #</t>
   </si>
@@ -205,9 +205,6 @@
     <t>Changjiang Electronics</t>
   </si>
   <si>
-    <t>Unknown</t>
-  </si>
-  <si>
     <t>SS12</t>
   </si>
   <si>
@@ -325,9 +322,6 @@
     <t>J5</t>
   </si>
   <si>
-    <t>538-10-84-5021</t>
-  </si>
-  <si>
     <t>77311-462K05LF</t>
   </si>
   <si>
@@ -364,21 +358,24 @@
     <t>Avnet</t>
   </si>
   <si>
-    <t>SMD IC DIODE SCHOTTKY 60V 3.5A</t>
+    <t>AO3407A</t>
+  </si>
+  <si>
+    <t>P-Channel 30 V 4.3A (Ta) 1.4W (Ta) Surface Mount SOT-23-3</t>
+  </si>
+  <si>
+    <t>Q4</t>
+  </si>
+  <si>
+    <t>Vishay Semiconductors</t>
+  </si>
+  <si>
+    <t>VS-30WQ06FN-M3</t>
   </si>
   <si>
     <t>VS-30WQ06FN-M3-ND</t>
   </si>
   <si>
-    <t>Q4</t>
-  </si>
-  <si>
-    <t>Vishay Semiconductors</t>
-  </si>
-  <si>
-    <t>VS-30WQ06FN-M3</t>
-  </si>
-  <si>
     <t>Resistor 10K  +/-1 % 0402 63 mW</t>
   </si>
   <si>
@@ -469,28 +466,28 @@
     <t>R9</t>
   </si>
   <si>
+    <t>ERJ-2RKF4752X</t>
+  </si>
+  <si>
+    <t>Allied Electronics</t>
+  </si>
+  <si>
+    <t>70265555</t>
+  </si>
+  <si>
+    <t>Jumper 0402</t>
+  </si>
+  <si>
+    <t>R10, R12, R16, R26, R27, R28</t>
+  </si>
+  <si>
     <t>Bourns</t>
   </si>
   <si>
-    <t>CR0402-FX-4752GLF</t>
-  </si>
-  <si>
-    <t>79AH0561</t>
-  </si>
-  <si>
-    <t>Jumper 0402</t>
-  </si>
-  <si>
-    <t>R10, R12, R16, R26, R27, R28</t>
-  </si>
-  <si>
     <t>CR0402-J/-000GLF</t>
   </si>
   <si>
-    <t>Allied Electronics</t>
-  </si>
-  <si>
-    <t>70154684</t>
+    <t>40Y8550</t>
   </si>
   <si>
     <t>10R2F</t>
@@ -521,12 +518,6 @@
   </si>
   <si>
     <t>SW1, SW2</t>
-  </si>
-  <si>
-    <t>SHOU HAN</t>
-  </si>
-  <si>
-    <t>TS665CJ250GFBXG</t>
   </si>
   <si>
     <t>ESP32-WROOM-32D</t>
@@ -1007,7 +998,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F35720B0-46E4-4E62-B442-66723954FE0A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{129C02BF-784F-4754-A9AC-73F1742B85C2}">
   <dimension ref="A1:L39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -1212,7 +1203,7 @@
         <v>33</v>
       </c>
       <c r="K5" s="1">
-        <v>0.38302999999999998</v>
+        <v>0.38307000000000002</v>
       </c>
       <c r="L5" s="1">
         <v>19.149999999999999</v>
@@ -1393,7 +1384,7 @@
         <v>51</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
@@ -1405,31 +1396,31 @@
         <v>12</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="D11" s="2" t="s">
         <v>57</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>58</v>
       </c>
       <c r="E11" s="1">
         <v>3</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>17</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K11" s="1">
         <v>0.29170000000000001</v>
@@ -1443,31 +1434,31 @@
         <v>12</v>
       </c>
       <c r="B12" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="D12" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="E12" s="1">
+        <v>1</v>
+      </c>
+      <c r="F12" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="E12" s="1">
-        <v>1</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="G12" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>17</v>
       </c>
       <c r="I12" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="J12" s="2" t="s">
         <v>65</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>66</v>
       </c>
       <c r="K12" s="1">
         <v>0.34</v>
@@ -1481,22 +1472,22 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="D13" s="2" t="s">
         <v>68</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>69</v>
       </c>
       <c r="E13" s="1">
         <v>2</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>17</v>
@@ -1505,7 +1496,7 @@
         <v>18</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K13" s="1">
         <v>0.91</v>
@@ -1519,31 +1510,31 @@
         <v>12</v>
       </c>
       <c r="B14" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="D14" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="E14" s="1">
+        <v>1</v>
+      </c>
+      <c r="F14" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="E14" s="1">
-        <v>1</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>75</v>
-      </c>
       <c r="G14" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>17</v>
       </c>
       <c r="I14" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="J14" s="2" t="s">
         <v>76</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>77</v>
       </c>
       <c r="K14" s="1">
         <v>0.92</v>
@@ -1557,31 +1548,31 @@
         <v>12</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="D15" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="E15" s="1">
+        <v>1</v>
+      </c>
+      <c r="F15" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="E15" s="1">
-        <v>1</v>
-      </c>
-      <c r="F15" s="2" t="s">
+      <c r="G15" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J15" s="2" t="s">
         <v>81</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="J15" s="2" t="s">
-        <v>82</v>
       </c>
       <c r="K15" s="1">
         <v>2.39</v>
@@ -1595,37 +1586,37 @@
         <v>12</v>
       </c>
       <c r="B16" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="D16" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="E16" s="1">
+        <v>1</v>
+      </c>
+      <c r="F16" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="E16" s="1">
-        <v>1</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>86</v>
-      </c>
       <c r="G16" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>17</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K16" s="1">
-        <v>9.1499999999999998E-2</v>
+        <v>9.3799999999999994E-2</v>
       </c>
       <c r="L16" s="1">
-        <v>915</v>
+        <v>938</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
@@ -1633,22 +1624,22 @@
         <v>12</v>
       </c>
       <c r="B17" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="D17" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="D17" s="2" t="s">
-        <v>90</v>
-      </c>
       <c r="E17" s="1">
         <v>1</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>17</v>
@@ -1657,75 +1648,61 @@
         <v>23</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K17" s="1">
-        <v>0.47599999999999998</v>
+        <v>0.48399999999999999</v>
       </c>
       <c r="L17" s="1">
-        <v>0.47599999999999998</v>
+        <v>0.48399999999999999</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="D18" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="D18" s="2" t="s">
-        <v>94</v>
-      </c>
       <c r="E18" s="1">
         <v>1</v>
       </c>
-      <c r="F18" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="J18" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="K18" s="1">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="L18" s="1">
-        <v>0.56999999999999995</v>
-      </c>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B19" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D19" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="E19" s="1">
+        <v>1</v>
+      </c>
+      <c r="F19" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="D19" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="E19" s="1">
-        <v>1</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>99</v>
-      </c>
       <c r="G19" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
@@ -1737,25 +1714,25 @@
         <v>12</v>
       </c>
       <c r="B20" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D20" s="2" t="s">
         <v>100</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>102</v>
       </c>
       <c r="E20" s="1">
         <v>2</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
@@ -1767,31 +1744,31 @@
         <v>12</v>
       </c>
       <c r="B21" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D21" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="E21" s="1">
+        <v>1</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I21" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="D21" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E21" s="1">
-        <v>1</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="I21" s="2" t="s">
-        <v>107</v>
-      </c>
       <c r="J21" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="K21" s="1">
         <v>2.427E-2</v>
@@ -1805,22 +1782,22 @@
         <v>12</v>
       </c>
       <c r="B22" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D22" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="E22" s="1">
+        <v>1</v>
+      </c>
+      <c r="F22" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="G22" s="2" t="s">
         <v>110</v>
-      </c>
-      <c r="E22" s="1">
-        <v>1</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>112</v>
       </c>
       <c r="H22" s="2" t="s">
         <v>17</v>
@@ -1829,7 +1806,7 @@
         <v>18</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="K22" s="1">
         <v>0.68</v>
@@ -1843,22 +1820,22 @@
         <v>12</v>
       </c>
       <c r="B23" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="D23" s="2" t="s">
         <v>114</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>115</v>
       </c>
       <c r="E23" s="1">
         <v>9</v>
       </c>
       <c r="F23" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="G23" s="2" t="s">
         <v>116</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>117</v>
       </c>
       <c r="H23" s="2" t="s">
         <v>17</v>
@@ -1867,7 +1844,7 @@
         <v>23</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="K23" s="1">
         <v>5.0000000000000001E-3</v>
@@ -1881,31 +1858,31 @@
         <v>12</v>
       </c>
       <c r="B24" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C24" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="D24" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="E24" s="1">
+        <v>1</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="G24" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="E24" s="1">
-        <v>1</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>122</v>
-      </c>
       <c r="H24" s="2" t="s">
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K24" s="1">
         <v>2.3099999999999999E-2</v>
@@ -1919,22 +1896,22 @@
         <v>12</v>
       </c>
       <c r="B25" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C25" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="D25" s="2" t="s">
         <v>124</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>125</v>
       </c>
       <c r="E25" s="1">
         <v>2</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H25" s="2" t="s">
         <v>17</v>
@@ -1943,7 +1920,7 @@
         <v>23</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K25" s="1">
         <v>5.0000000000000001E-3</v>
@@ -1957,22 +1934,22 @@
         <v>12</v>
       </c>
       <c r="B26" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C26" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="D26" s="2" t="s">
         <v>129</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>130</v>
       </c>
       <c r="E26" s="1">
         <v>8</v>
       </c>
       <c r="F26" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="G26" s="2" t="s">
         <v>131</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>132</v>
       </c>
       <c r="H26" s="2" t="s">
         <v>17</v>
@@ -1981,7 +1958,7 @@
         <v>23</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K26" s="1">
         <v>1E-3</v>
@@ -1995,22 +1972,22 @@
         <v>12</v>
       </c>
       <c r="B27" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C27" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="D27" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="E27" s="1">
+        <v>1</v>
+      </c>
+      <c r="F27" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="E27" s="1">
-        <v>1</v>
-      </c>
-      <c r="F27" s="2" t="s">
+      <c r="G27" s="2" t="s">
         <v>137</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>138</v>
       </c>
       <c r="H27" s="2" t="s">
         <v>17</v>
@@ -2019,7 +1996,7 @@
         <v>23</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K27" s="1">
         <v>5.0000000000000001E-3</v>
@@ -2033,37 +2010,37 @@
         <v>12</v>
       </c>
       <c r="B28" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C28" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="D28" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="E28" s="1">
+        <v>1</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="G28" s="2" t="s">
         <v>142</v>
-      </c>
-      <c r="E28" s="1">
-        <v>1</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>144</v>
       </c>
       <c r="H28" s="2" t="s">
         <v>17</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>23</v>
+        <v>143</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K28" s="1">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
       <c r="L28" s="1">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
@@ -2071,19 +2048,19 @@
         <v>12</v>
       </c>
       <c r="B29" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="D29" s="2" t="s">
         <v>146</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>147</v>
       </c>
       <c r="E29" s="1">
         <v>6</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="G29" s="2" t="s">
         <v>148</v>
@@ -2092,10 +2069,10 @@
         <v>17</v>
       </c>
       <c r="I29" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J29" s="2" t="s">
         <v>149</v>
-      </c>
-      <c r="J29" s="2" t="s">
-        <v>150</v>
       </c>
       <c r="K29" s="1">
         <v>2E-3</v>
@@ -2109,22 +2086,22 @@
         <v>12</v>
       </c>
       <c r="B30" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C30" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="D30" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="D30" s="2" t="s">
-        <v>153</v>
-      </c>
       <c r="E30" s="1">
         <v>1</v>
       </c>
       <c r="F30" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="G30" s="2" t="s">
         <v>131</v>
-      </c>
-      <c r="G30" s="2" t="s">
-        <v>132</v>
       </c>
       <c r="H30" s="2" t="s">
         <v>17</v>
@@ -2133,7 +2110,7 @@
         <v>23</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K30" s="1">
         <v>1E-3</v>
@@ -2147,31 +2124,31 @@
         <v>12</v>
       </c>
       <c r="B31" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C31" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="D31" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="D31" s="2" t="s">
+      <c r="E31" s="1">
+        <v>1</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="G31" s="2" t="s">
         <v>156</v>
-      </c>
-      <c r="E31" s="1">
-        <v>1</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="G31" s="2" t="s">
-        <v>157</v>
       </c>
       <c r="H31" s="2" t="s">
         <v>17</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K31" s="1">
         <v>1.15E-3</v>
@@ -2185,26 +2162,20 @@
         <v>12</v>
       </c>
       <c r="B32" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C32" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="D32" s="2" t="s">
         <v>159</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>160</v>
       </c>
       <c r="E32" s="1">
         <v>2</v>
       </c>
-      <c r="F32" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="G32" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="H32" s="2" t="s">
-        <v>55</v>
-      </c>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
@@ -2215,25 +2186,25 @@
         <v>12</v>
       </c>
       <c r="B33" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="E33" s="1">
+        <v>1</v>
+      </c>
+      <c r="F33" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="G33" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="H33" s="2" t="s">
         <v>164</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="E33" s="1">
-        <v>1</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="G33" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="H33" s="2" t="s">
-        <v>167</v>
       </c>
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
@@ -2245,31 +2216,31 @@
         <v>12</v>
       </c>
       <c r="B34" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E34" s="1">
+        <v>1</v>
+      </c>
+      <c r="F34" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="G34" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="J34" s="2" t="s">
         <v>169</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="E34" s="1">
-        <v>1</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="G34" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="H34" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="I34" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="J34" s="2" t="s">
-        <v>172</v>
       </c>
       <c r="K34" s="1">
         <v>2.16</v>
@@ -2283,31 +2254,31 @@
         <v>12</v>
       </c>
       <c r="B35" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E35" s="1">
+        <v>1</v>
+      </c>
+      <c r="F35" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="C35" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="E35" s="1">
-        <v>1</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>176</v>
-      </c>
       <c r="G35" s="2" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="I35" s="2" t="s">
         <v>18</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="K35" s="1">
         <v>3.62</v>
@@ -2321,31 +2292,31 @@
         <v>12</v>
       </c>
       <c r="B36" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E36" s="1">
+        <v>1</v>
+      </c>
+      <c r="F36" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="G36" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I36" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="D36" s="2" t="s">
+      <c r="J36" s="2" t="s">
         <v>180</v>
-      </c>
-      <c r="E36" s="1">
-        <v>1</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="G36" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="H36" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="I36" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="J36" s="2" t="s">
-        <v>183</v>
       </c>
       <c r="K36" s="1">
         <v>11.6</v>
@@ -2359,37 +2330,37 @@
         <v>12</v>
       </c>
       <c r="B37" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="E37" s="1">
+        <v>1</v>
+      </c>
+      <c r="F37" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="C37" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="E37" s="1">
-        <v>1</v>
-      </c>
-      <c r="F37" s="2" t="s">
-        <v>187</v>
-      </c>
       <c r="G37" s="2" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="H37" s="2" t="s">
         <v>17</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="K37" s="1">
-        <v>2.9</v>
+        <v>2.5099999999999998</v>
       </c>
       <c r="L37" s="1">
-        <v>2.9</v>
+        <v>2.5099999999999998</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
@@ -2397,31 +2368,31 @@
         <v>12</v>
       </c>
       <c r="B38" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="E38" s="1">
+        <v>1</v>
+      </c>
+      <c r="F38" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="C38" s="2" t="s">
+      <c r="G38" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="J38" s="2" t="s">
         <v>189</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="E38" s="1">
-        <v>1</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="G38" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="H38" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="I38" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="J38" s="2" t="s">
-        <v>192</v>
       </c>
       <c r="K38" s="1">
         <v>27</v>
@@ -2435,31 +2406,31 @@
         <v>12</v>
       </c>
       <c r="B39" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="E39" s="1">
+        <v>1</v>
+      </c>
+      <c r="F39" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="C39" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="E39" s="1">
-        <v>1</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>196</v>
-      </c>
       <c r="G39" s="2" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="I39" s="2" t="s">
         <v>18</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="K39" s="1">
         <v>0.54</v>
